--- a/validation/Table2_compound specific input parameters.xlsx
+++ b/validation/Table2_compound specific input parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sueinchoi/Documents/GitHub/KpCoeff/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sueinchoi/GitHub/KpCoeff/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848E18AE-CFB9-E944-9CFC-54AE7B02EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57440604-67A8-A847-879C-839141DD10B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{07D0BE76-40AC-A042-9365-81696CA33FEC}"/>
+    <workbookView xWindow="34920" yWindow="-2200" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{07D0BE76-40AC-A042-9365-81696CA33FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>Compound</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,90 +258,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enoxacin(acid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ofloxacin(base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ofloxacin(acid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pefloxacin(base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pefloxacin(acid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipemidic acid(base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipemidic acid(acid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetracycline(base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetracycline(acid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceftazidime(base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceftazidime(acid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nalidixic acid(base)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nalidixic acid(acid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tetracycline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipemidic acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceftazidime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timolol-S1</t>
+  </si>
+  <si>
+    <t>Timolol-S2</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Enoxacin(base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enoxacin(acid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ofloxacin(base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ofloxacin(acid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pefloxacin(base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pefloxacin(acid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipemidic acid(base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipemidic acid(acid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tetracycline(base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tetracycline(acid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceftazidime(base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceftazidime(acid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nalidixic acid(base)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nalidixic acid(acid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etodolac-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etodolac-S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tetracycline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipemidic acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceftazidime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timolol-S1</t>
-  </si>
-  <si>
-    <t>Timolol-S2</t>
   </si>
 </sst>
 </file>
@@ -755,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED2EF08-A243-5049-A675-774C4126AD6C}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J18:J20"/>
     </sheetView>
   </sheetViews>
@@ -1225,7 +1219,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2">
         <v>9.1999999999999993</v>
@@ -1242,7 +1236,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2">
         <v>8.8000000000000007</v>
@@ -1366,11 +1360,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A718CB-2181-417A-867F-F166C4AD91A4}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1381,7 +1375,7 @@
     <col min="5" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1397,8 +1391,11 @@
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
+      <c r="F1" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -1414,8 +1411,11 @@
       <c r="E2" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1431,8 +1431,11 @@
       <c r="E3" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17">
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1448,8 +1451,11 @@
       <c r="E4" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17">
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1465,8 +1471,11 @@
       <c r="E5" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17">
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -1482,8 +1491,11 @@
       <c r="E6" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17">
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -1499,8 +1511,11 @@
       <c r="E7" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17">
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1516,8 +1531,11 @@
       <c r="E8" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17">
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1533,8 +1551,11 @@
       <c r="E9" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17">
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1550,8 +1571,11 @@
       <c r="E10" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17">
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -1567,8 +1591,11 @@
       <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17">
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1584,8 +1611,11 @@
       <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17">
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1601,8 +1631,11 @@
       <c r="E13" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17">
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1618,8 +1651,11 @@
       <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17">
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1635,8 +1671,11 @@
       <c r="E15" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17">
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
@@ -1651,6 +1690,9 @@
       </c>
       <c r="E16" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17">
@@ -1669,8 +1711,11 @@
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="17">
@@ -1689,6 +1734,9 @@
       <c r="E18" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="17">
       <c r="A19" s="3" t="s">
@@ -1706,73 +1754,102 @@
       <c r="E19" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="6" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="C20" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.6</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.15</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="6" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="C21" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.64</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6">
-        <v>2.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C22" s="6">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D22" s="4">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6">
-        <v>7.4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D23" s="4">
-        <v>0.64</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1784,19 +1861,22 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="6">
-        <v>8.3000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="C24" s="6">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D24" s="4">
-        <v>0.19</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1808,19 +1888,22 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="C25" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="D25" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1832,19 +1915,22 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="6">
         <v>5.3</v>
       </c>
       <c r="C26" s="6">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D26" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.27</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1856,19 +1942,22 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6">
-        <v>7.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C27" s="6">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D27" s="4">
-        <v>0.13</v>
+        <v>0.37</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -1880,19 +1969,22 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="6">
-        <v>5.3</v>
+        <v>40</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C28" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.27</v>
+        <v>2.9</v>
+      </c>
+      <c r="D28" s="6">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -1904,245 +1996,270 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="6">
-        <v>4.5999999999999996</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.37</v>
+        <v>1.2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.61</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="6">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="D30" s="6">
-        <v>8.3000000000000004E-2</v>
+        <v>0.59</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="6">
-        <v>1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D31" s="6">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="B32" s="6">
+        <v>8.6999999999999993</v>
       </c>
       <c r="C32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C36" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="F36" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="6">
         <v>0.8</v>
       </c>
-      <c r="D32" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="E38" s="6">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="F38" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E39" s="6">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C36" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C38" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B40" s="6">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="6">
-        <v>1.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D40" s="6">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E40" s="6">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="6">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="C41" s="6">
-        <v>1.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D41" s="6">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E41" s="6">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B42" s="6">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C42" s="6">
         <v>-2.2000000000000002</v>
@@ -2153,47 +2270,56 @@
       <c r="E42" s="6">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6">
-        <v>3.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C43" s="6">
-        <v>-2.2000000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="D43" s="6">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="6">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B44" s="6">
-        <v>4.9000000000000004</v>
+        <v>7.7</v>
       </c>
       <c r="C44" s="6">
-        <v>-2.2000000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="D44" s="6">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="6">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="6">
-        <v>9.6999999999999993</v>
+        <v>3.3</v>
       </c>
       <c r="C45" s="6">
         <v>0.03</v>
@@ -2204,47 +2330,56 @@
       <c r="E45" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B46" s="6">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="C46" s="6">
-        <v>0.03</v>
+        <v>-0.5</v>
       </c>
       <c r="D46" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B47" s="6">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="C47" s="6">
-        <v>0.03</v>
+        <v>-0.5</v>
       </c>
       <c r="D47" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B48" s="6">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="C48" s="6">
         <v>-0.5</v>
@@ -2255,73 +2390,48 @@
       <c r="E48" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B49" s="6">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="C49" s="6">
-        <v>-0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="6">
-        <v>0.1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="6">
-        <v>1.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C50" s="6">
-        <v>-0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D50" s="6">
-        <v>0.1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>62</v>
+      <c r="F50" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
